--- a/Postep.xlsx
+++ b/Postep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyamr\Documents\Programowanie\Hackaton\HACKATHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B66F91-5A90-45EC-BB61-F6EE1F68C939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1446F0-CA13-4274-A5E6-8157C1ABFDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8964" xr2:uid="{54F5C51C-4280-46D3-B986-549A3B50E979}"/>
   </bookViews>
@@ -522,7 +522,7 @@
   <dimension ref="A2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,7 +608,7 @@
       <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -639,7 +639,7 @@
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="3" t="s">

--- a/Postep.xlsx
+++ b/Postep.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyamr\Documents\Programowanie\Hackaton\HACKATHON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasoh\Documents\STUDIA\HACKATHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B66F91-5A90-45EC-BB61-F6EE1F68C939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE8F2AC-B052-4036-8DDA-AAE71672A811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8964" xr2:uid="{54F5C51C-4280-46D3-B986-549A3B50E979}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54F5C51C-4280-46D3-B986-549A3B50E979}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,8 +161,22 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +201,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -197,17 +221,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Accent6" xfId="2" builtinId="49"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -223,9 +253,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -263,7 +293,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -369,7 +399,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -522,20 +552,20 @@
   <dimension ref="A2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -552,7 +582,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -572,7 +602,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -592,7 +622,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -608,11 +638,11 @@
       <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -628,18 +658,18 @@
       <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="3" t="s">

--- a/Postep.xlsx
+++ b/Postep.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyamr\Documents\Programowanie\Hackaton\HACKATHON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasoh\Documents\STUDIA\HACKATHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A3F2AD-CE42-4624-8102-19488C87467A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A10214-A13D-4FF1-951E-C2A181518897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{54F5C51C-4280-46D3-B986-549A3B50E979}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54F5C51C-4280-46D3-B986-549A3B50E979}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,8 +186,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +213,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -216,17 +228,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -242,9 +257,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -282,7 +297,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -388,7 +403,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -541,21 +556,21 @@
   <dimension ref="A2:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -575,7 +590,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -594,11 +609,11 @@
       <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -621,7 +636,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -644,7 +659,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -667,11 +682,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">

--- a/Postep.xlsx
+++ b/Postep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasoh\Documents\STUDIA\HACKATHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A10214-A13D-4FF1-951E-C2A181518897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CBDE52-47B5-4B72-9FD6-138EE5FE7D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54F5C51C-4280-46D3-B986-549A3B50E979}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Batch 3</t>
   </si>
@@ -157,13 +157,97 @@
   </si>
   <si>
     <t>Przepiękne tło kulkowe</t>
+  </si>
+  <si>
+    <t>Batch 9</t>
+  </si>
+  <si>
+    <t>Batch 10</t>
+  </si>
+  <si>
+    <t>Batch 11</t>
+  </si>
+  <si>
+    <t>Batch 13</t>
+  </si>
+  <si>
+    <t>Batch 12</t>
+  </si>
+  <si>
+    <t>Rzutki</t>
+  </si>
+  <si>
+    <t>Fastapi</t>
+  </si>
+  <si>
+    <t>barka</t>
+  </si>
+  <si>
+    <t>kolko krzyzyl</t>
+  </si>
+  <si>
+    <t>Szachy</t>
+  </si>
+  <si>
+    <t>NASM !</t>
+  </si>
+  <si>
+    <t>Siódmy dzie tygodnia</t>
+  </si>
+  <si>
+    <t>ARKO</t>
+  </si>
+  <si>
+    <t>My precious</t>
+  </si>
+  <si>
+    <t>NASM Hello World</t>
+  </si>
+  <si>
+    <t>Statystyki tekstu</t>
+  </si>
+  <si>
+    <t>Poker</t>
+  </si>
+  <si>
+    <t>Szachowa kawaleria</t>
+  </si>
+  <si>
+    <t>Gdzie leziesz</t>
+  </si>
+  <si>
+    <t>Alkohol</t>
+  </si>
+  <si>
+    <t>kalkulator</t>
+  </si>
+  <si>
+    <t>shakespeare</t>
+  </si>
+  <si>
+    <t>kalkulator 2</t>
+  </si>
+  <si>
+    <t>pythocr</t>
+  </si>
+  <si>
+    <t>horner</t>
+  </si>
+  <si>
+    <t>rickroll</t>
+  </si>
+  <si>
+    <t>spinacz</t>
+  </si>
+  <si>
+    <t>razem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,8 +277,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,8 +310,13 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -227,19 +324,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -553,24 +671,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D5CABF-4E77-4560-BB05-FDD6091D2B2A}">
-  <dimension ref="A2:G7"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>24</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>7</v>
+      </c>
+      <c r="E1">
+        <v>11</v>
+      </c>
+      <c r="F1">
+        <v>14</v>
+      </c>
+      <c r="G1">
+        <v>18</v>
+      </c>
+      <c r="H1">
+        <v>21</v>
+      </c>
+      <c r="I1">
+        <v>24</v>
+      </c>
+      <c r="J1">
+        <v>3</v>
+      </c>
+      <c r="K1" s="7">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="L1" s="7">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -589,8 +747,23 @@
       <c r="G2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -612,8 +785,23 @@
       <c r="G3" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -635,8 +823,17 @@
       <c r="G4" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -658,8 +855,23 @@
       <c r="G5" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -681,8 +893,23 @@
       <c r="G6" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -698,16 +925,166 @@
       <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
+      <c r="H7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="O10" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10">
+        <f>10 + SUM(B9:L13)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Postep.xlsx
+++ b/Postep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasoh\Documents\STUDIA\HACKATHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CBDE52-47B5-4B72-9FD6-138EE5FE7D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EFA3B5-639F-414F-95B3-F96BF1FBF19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54F5C51C-4280-46D3-B986-549A3B50E979}"/>
   </bookViews>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D5CABF-4E77-4560-BB05-FDD6091D2B2A}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,7 +797,7 @@
       <c r="K3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -820,7 +820,7 @@
       <c r="F4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="6" t="s">
         <v>37</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -855,10 +855,10 @@
       <c r="G5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -976,7 +976,9 @@
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -989,7 +991,9 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -1000,7 +1004,7 @@
       </c>
       <c r="P10">
         <f>10 + SUM(B9:L13)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1019,8 +1023,12 @@
         <v>1</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5">
         <v>1</v>

--- a/Postep.xlsx
+++ b/Postep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasoh\Documents\STUDIA\HACKATHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EFA3B5-639F-414F-95B3-F96BF1FBF19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C01093D-E094-406E-AA6D-12CB24D0CD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54F5C51C-4280-46D3-B986-549A3B50E979}"/>
+    <workbookView xWindow="16020" yWindow="3345" windowWidth="21600" windowHeight="11385" xr2:uid="{54F5C51C-4280-46D3-B986-549A3B50E979}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D5CABF-4E77-4560-BB05-FDD6091D2B2A}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,7 +861,7 @@
       <c r="I5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -905,7 +905,7 @@
       <c r="K6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="P10">
         <f>10 + SUM(B9:L13)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1029,7 +1029,9 @@
       <c r="I11" s="5">
         <v>1</v>
       </c>
-      <c r="J11" s="5"/>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
       <c r="K11" s="5">
         <v>1</v>
       </c>
@@ -1059,7 +1061,9 @@
       <c r="K12" s="5">
         <v>1</v>
       </c>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
